--- a/Code/Results/Cases/Case_4_111/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_111/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.12099469840983</v>
+        <v>19.30175218868783</v>
       </c>
       <c r="C2">
-        <v>16.46480299073381</v>
+        <v>9.359008950556611</v>
       </c>
       <c r="D2">
-        <v>7.209955653040077</v>
+        <v>6.000743325601204</v>
       </c>
       <c r="E2">
-        <v>5.794234006041556</v>
+        <v>9.917797993583333</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>44.54686079775463</v>
+        <v>43.38720887879066</v>
       </c>
       <c r="H2">
-        <v>12.81217741797105</v>
+        <v>17.4197638208352</v>
       </c>
       <c r="I2">
-        <v>19.12751403586639</v>
+        <v>26.10181466441462</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.68949107310439</v>
+        <v>10.2742648893817</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.61781939977514</v>
+        <v>18.16255530900539</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.35399116981951</v>
+        <v>18.77987472425733</v>
       </c>
       <c r="C3">
-        <v>15.35697362474751</v>
+        <v>8.783565395150836</v>
       </c>
       <c r="D3">
-        <v>6.696411795944251</v>
+        <v>5.885786259652837</v>
       </c>
       <c r="E3">
-        <v>5.834103570660513</v>
+        <v>9.94117660039621</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>42.24347613010754</v>
+        <v>42.99118484504491</v>
       </c>
       <c r="H3">
-        <v>12.48994171632956</v>
+        <v>17.42482376637523</v>
       </c>
       <c r="I3">
-        <v>18.74960637428043</v>
+        <v>26.13481833111841</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.405550516192512</v>
+        <v>10.25119504932647</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.89750155568331</v>
+        <v>18.23688922098551</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.21164685410216</v>
+        <v>18.45693006997931</v>
       </c>
       <c r="C4">
-        <v>14.64209066043431</v>
+        <v>8.409137042208412</v>
       </c>
       <c r="D4">
-        <v>6.365060866294507</v>
+        <v>5.816000549909685</v>
       </c>
       <c r="E4">
-        <v>5.860593885627302</v>
+        <v>9.956490195497613</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>40.82573532043659</v>
+        <v>42.76296120058336</v>
       </c>
       <c r="H4">
-        <v>12.30227846559323</v>
+        <v>17.43236153732904</v>
       </c>
       <c r="I4">
-        <v>18.53767917924164</v>
+        <v>26.16215218737007</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.231442603225926</v>
+        <v>10.23914361927508</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.07144950240529</v>
+        <v>18.28447527119237</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.73155223220034</v>
+        <v>18.32491096349692</v>
       </c>
       <c r="C5">
-        <v>14.34195479978102</v>
+        <v>8.251260753187422</v>
       </c>
       <c r="D5">
-        <v>6.22684498298837</v>
+        <v>5.787805275672643</v>
       </c>
       <c r="E5">
-        <v>5.871884047889613</v>
+        <v>9.962972182862686</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>40.24772461740834</v>
+        <v>42.67380653654261</v>
       </c>
       <c r="H5">
-        <v>12.22834734463595</v>
+        <v>17.4365446151194</v>
       </c>
       <c r="I5">
-        <v>18.45623023515595</v>
+        <v>26.17506086717872</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.160629988917611</v>
+        <v>10.23476699346311</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.14295524345137</v>
+        <v>18.30435784021617</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.65094830584957</v>
+        <v>18.30297060188164</v>
       </c>
       <c r="C6">
-        <v>14.29158248176908</v>
+        <v>8.224726298765942</v>
       </c>
       <c r="D6">
-        <v>6.207061446932915</v>
+        <v>5.783139380338438</v>
       </c>
       <c r="E6">
-        <v>5.87378839087189</v>
+        <v>9.964063114635879</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>40.15175005406875</v>
+        <v>42.6592374158035</v>
       </c>
       <c r="H6">
-        <v>12.21622409812795</v>
+        <v>17.43730624172073</v>
       </c>
       <c r="I6">
-        <v>18.44299801219399</v>
+        <v>26.17731099999035</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.148882420145088</v>
+        <v>10.23407261356105</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.15486792043439</v>
+        <v>18.30768902706838</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.20523134709383</v>
+        <v>18.45515100975506</v>
       </c>
       <c r="C7">
-        <v>14.63807873425663</v>
+        <v>8.407029279409469</v>
       </c>
       <c r="D7">
-        <v>6.36320128231596</v>
+        <v>5.815619258992571</v>
       </c>
       <c r="E7">
-        <v>5.860744156885043</v>
+        <v>9.956576635163374</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>40.81794027356896</v>
+        <v>42.76174313302536</v>
       </c>
       <c r="H7">
-        <v>12.30127113564778</v>
+        <v>17.4324134561506</v>
       </c>
       <c r="I7">
-        <v>18.53656103551291</v>
+        <v>26.16231912299762</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.230486930313694</v>
+        <v>10.23908242712794</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.07241126274528</v>
+        <v>18.28474142457159</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.52355084718326</v>
+        <v>19.12245521472685</v>
       </c>
       <c r="C8">
-        <v>16.08995680091801</v>
+        <v>9.164981928519584</v>
       </c>
       <c r="D8">
-        <v>7.036175488087193</v>
+        <v>5.960965703723132</v>
       </c>
       <c r="E8">
-        <v>5.807557290169594</v>
+        <v>9.925660138972253</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>43.75368861144919</v>
+        <v>43.2476179279168</v>
       </c>
       <c r="H8">
-        <v>12.69894450945979</v>
+        <v>17.42058733001563</v>
       </c>
       <c r="I8">
-        <v>18.99295456629897</v>
+        <v>26.11172261451397</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.591584608538235</v>
+        <v>10.265873657791</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.71383129762163</v>
+        <v>18.18778313370869</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.62187183738547</v>
+        <v>20.40225678621007</v>
       </c>
       <c r="C9">
-        <v>18.66709174760287</v>
+        <v>10.48361110621365</v>
       </c>
       <c r="D9">
-        <v>8.231607112016984</v>
+        <v>6.250484688405425</v>
       </c>
       <c r="E9">
-        <v>5.719725381601611</v>
+        <v>9.872623844106432</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>49.46419715222764</v>
+        <v>44.31443396404969</v>
       </c>
       <c r="H9">
-        <v>13.5605192461037</v>
+        <v>17.43265455583065</v>
       </c>
       <c r="I9">
-        <v>20.05350167016062</v>
+        <v>26.06891077066033</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.298613653665319</v>
+        <v>10.33503125275632</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.02523439695652</v>
+        <v>18.01299265805966</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.37162244266382</v>
+        <v>21.31398396833786</v>
       </c>
       <c r="C10">
-        <v>20.40410153971869</v>
+        <v>11.35015019409668</v>
       </c>
       <c r="D10">
-        <v>9.038551857760439</v>
+        <v>6.463522719436524</v>
       </c>
       <c r="E10">
-        <v>5.666040454062284</v>
+        <v>9.838259996086096</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>53.61668677903309</v>
+        <v>45.16115397479683</v>
       </c>
       <c r="H10">
-        <v>14.24494107744749</v>
+        <v>17.46311476956634</v>
       </c>
       <c r="I10">
-        <v>20.94165898131497</v>
+        <v>26.07222607222093</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.814399212147752</v>
+        <v>10.39574410846939</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.52351218182409</v>
+        <v>17.89380549987717</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.56879069243809</v>
+        <v>21.72049507559245</v>
       </c>
       <c r="C11">
-        <v>21.16246930121277</v>
+        <v>11.72222360037</v>
       </c>
       <c r="D11">
-        <v>9.391241301453517</v>
+        <v>6.56002358019707</v>
       </c>
       <c r="E11">
-        <v>5.64418067576775</v>
+        <v>9.823620891542054</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>55.49645167641305</v>
+        <v>45.55848204871284</v>
       </c>
       <c r="H11">
-        <v>14.56800651672653</v>
+        <v>17.48166850972155</v>
       </c>
       <c r="I11">
-        <v>21.37116809976163</v>
+        <v>26.08134777770834</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.047892477171471</v>
+        <v>10.42545594917729</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.29499571964929</v>
+        <v>17.84156224214298</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.01468080197324</v>
+        <v>21.87309270712595</v>
       </c>
       <c r="C12">
-        <v>21.44527069069889</v>
+        <v>11.85994500524912</v>
       </c>
       <c r="D12">
-        <v>9.522825102409916</v>
+        <v>6.596468442068196</v>
       </c>
       <c r="E12">
-        <v>5.636291444034042</v>
+        <v>9.818219864357502</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>56.20714928782642</v>
+        <v>45.71055211143803</v>
       </c>
       <c r="H12">
-        <v>14.69209216336859</v>
+        <v>17.48936915793805</v>
       </c>
       <c r="I12">
-        <v>21.53764037466153</v>
+        <v>26.08590037100979</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.136136443348617</v>
+        <v>10.43700239769796</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.20831158657315</v>
+        <v>17.82206118231936</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.91897714797528</v>
+        <v>21.84028995942536</v>
       </c>
       <c r="C13">
-        <v>21.38455556427441</v>
+        <v>11.83042531730981</v>
       </c>
       <c r="D13">
-        <v>9.494572217774868</v>
+        <v>6.588624340888733</v>
       </c>
       <c r="E13">
-        <v>5.637972899109306</v>
+        <v>9.819376740445037</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>56.05413314730919</v>
+        <v>45.67773168131406</v>
       </c>
       <c r="H13">
-        <v>14.66528913718269</v>
+        <v>17.48768069472813</v>
       </c>
       <c r="I13">
-        <v>21.50161457990653</v>
+        <v>26.08487099016437</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.117139304638009</v>
+        <v>10.43450263008067</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.22698911179766</v>
+        <v>17.82624855576657</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.60562201651875</v>
+        <v>21.73307705328237</v>
       </c>
       <c r="C14">
-        <v>21.18582202383021</v>
+        <v>11.73361760815911</v>
       </c>
       <c r="D14">
-        <v>9.402105706471961</v>
+        <v>6.563024098641863</v>
       </c>
       <c r="E14">
-        <v>5.643523711050178</v>
+        <v>9.823173692086055</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>55.55494210282976</v>
+        <v>45.5709614603149</v>
       </c>
       <c r="H14">
-        <v>14.57817965409971</v>
+        <v>17.48228853029382</v>
       </c>
       <c r="I14">
-        <v>21.38478617590466</v>
+        <v>26.08170029164276</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.055155870955197</v>
+        <v>10.42640000045778</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.28786784035239</v>
+        <v>17.83995222999031</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.41272111506584</v>
+        <v>21.66722728021995</v>
       </c>
       <c r="C15">
-        <v>21.06352838924699</v>
+        <v>11.67390686003362</v>
       </c>
       <c r="D15">
-        <v>9.345213554108673</v>
+        <v>6.54732934089342</v>
       </c>
       <c r="E15">
-        <v>5.646974993191095</v>
+        <v>9.825517980407307</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>55.24903484472027</v>
+        <v>45.50576724790772</v>
       </c>
       <c r="H15">
-        <v>14.52505241547194</v>
+        <v>17.47907351299626</v>
       </c>
       <c r="I15">
-        <v>21.31372892071954</v>
+        <v>26.0799012812494</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.017166406706522</v>
+        <v>10.42147517315258</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.32513483299225</v>
+        <v>17.84838284151089</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.2923264913492</v>
+        <v>21.28723820286</v>
       </c>
       <c r="C16">
-        <v>20.35391675019451</v>
+        <v>11.32538969324265</v>
       </c>
       <c r="D16">
-        <v>9.015221267771691</v>
+        <v>6.457204527263194</v>
       </c>
       <c r="E16">
-        <v>5.66752226228123</v>
+        <v>9.839236652633538</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>53.49366734706354</v>
+        <v>45.13542054131735</v>
       </c>
       <c r="H16">
-        <v>14.22406868572498</v>
+        <v>17.46199671523549</v>
       </c>
       <c r="I16">
-        <v>20.91411569995259</v>
+        <v>26.07178347975282</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.799115637929296</v>
+        <v>10.39384400633955</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.53843153610222</v>
+        <v>17.8972593229267</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.59142897375647</v>
+        <v>21.05190279545765</v>
       </c>
       <c r="C17">
-        <v>19.9105798060939</v>
+        <v>11.10592403334839</v>
       </c>
       <c r="D17">
-        <v>8.809161623001769</v>
+        <v>6.401782354320451</v>
       </c>
       <c r="E17">
-        <v>5.680797083099995</v>
+        <v>9.847906751558035</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>52.41453375084716</v>
+        <v>44.91124072836731</v>
       </c>
       <c r="H17">
-        <v>14.04246457253921</v>
+        <v>17.45272345086997</v>
       </c>
       <c r="I17">
-        <v>20.67560154488673</v>
+        <v>26.06875634028938</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.665043742131594</v>
+        <v>10.37742533060575</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.66913612480159</v>
+        <v>17.92774820152562</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.18321816814559</v>
+        <v>20.91577704323521</v>
       </c>
       <c r="C18">
-        <v>19.65257713346231</v>
+        <v>10.9776106929566</v>
       </c>
       <c r="D18">
-        <v>8.68928035921533</v>
+        <v>6.369868486670106</v>
       </c>
       <c r="E18">
-        <v>5.688672184278381</v>
+        <v>9.852987065780773</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>51.79295474814178</v>
+        <v>44.78345055662752</v>
       </c>
       <c r="H18">
-        <v>13.939108848633</v>
+        <v>17.44783192834069</v>
       </c>
       <c r="I18">
-        <v>20.54080229728107</v>
+        <v>26.06773168067534</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.587821498119022</v>
+        <v>10.36817914397952</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.74429478656924</v>
+        <v>17.94547065363662</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.04412590054993</v>
+        <v>20.86956039945792</v>
       </c>
       <c r="C19">
-        <v>19.56469976868295</v>
+        <v>10.93380817703729</v>
       </c>
       <c r="D19">
-        <v>8.648454013718903</v>
+        <v>6.359057943651409</v>
       </c>
       <c r="E19">
-        <v>5.691379164192891</v>
+        <v>9.854723242339498</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>51.58234253859978</v>
+        <v>44.74038499228048</v>
       </c>
       <c r="H19">
-        <v>13.90430140704968</v>
+        <v>17.44625170331159</v>
       </c>
       <c r="I19">
-        <v>20.49556708296943</v>
+        <v>26.06750767807802</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.561657479000024</v>
+        <v>10.36508261734647</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.76974206966148</v>
+        <v>17.95150318024247</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.66656388425762</v>
+        <v>21.07703520227395</v>
       </c>
       <c r="C20">
-        <v>19.95808363605526</v>
+        <v>11.12950201995512</v>
       </c>
       <c r="D20">
-        <v>8.831237226667012</v>
+        <v>6.407686203853086</v>
       </c>
       <c r="E20">
-        <v>5.679359001462777</v>
+        <v>9.84697413000308</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>52.52950054566836</v>
+        <v>44.93498679230201</v>
       </c>
       <c r="H20">
-        <v>14.06168259711532</v>
+        <v>17.4536648412877</v>
       </c>
       <c r="I20">
-        <v>20.70074354964247</v>
+        <v>26.06900440369143</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.679327194038882</v>
+        <v>10.37915273698385</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.65522513619806</v>
+        <v>17.9244833651737</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.69786193213879</v>
+        <v>21.76460559549047</v>
       </c>
       <c r="C21">
-        <v>21.24431194838833</v>
+        <v>11.76213848263619</v>
       </c>
       <c r="D21">
-        <v>9.429318053350748</v>
+        <v>6.570546467357097</v>
       </c>
       <c r="E21">
-        <v>5.641882582931108</v>
+        <v>9.822054571009277</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>55.70159485831824</v>
+        <v>45.60227985703537</v>
       </c>
       <c r="H21">
-        <v>14.60371778064303</v>
+        <v>17.4838540363589</v>
       </c>
       <c r="I21">
-        <v>21.4189962554166</v>
+        <v>26.08260176862296</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.073366660514914</v>
+        <v>10.42877197523207</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.26999128581355</v>
+        <v>17.83591948036228</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.98214808914682</v>
+        <v>22.2061039904867</v>
       </c>
       <c r="C22">
-        <v>22.05953973226998</v>
+        <v>12.15710231834522</v>
       </c>
       <c r="D22">
-        <v>9.808756876588255</v>
+        <v>6.676397723567479</v>
       </c>
       <c r="E22">
-        <v>5.619665884713532</v>
+        <v>9.806598553731597</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>57.76837281956709</v>
+        <v>46.04771667493495</v>
       </c>
       <c r="H22">
-        <v>14.9682019797616</v>
+        <v>17.5075165451304</v>
       </c>
       <c r="I22">
-        <v>21.91081290675891</v>
+        <v>26.09789172955278</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.329881612614596</v>
+        <v>10.4629188036492</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.01728473842694</v>
+        <v>17.7796826744127</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.30056310110348</v>
+        <v>21.97123553009389</v>
       </c>
       <c r="C23">
-        <v>21.62668923266703</v>
+        <v>11.94799304119555</v>
       </c>
       <c r="D23">
-        <v>9.607255116544918</v>
+        <v>6.619968963214347</v>
       </c>
       <c r="E23">
-        <v>5.631307706426417</v>
+        <v>9.814771852328841</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>56.66576932064894</v>
+        <v>45.80917155876029</v>
       </c>
       <c r="H23">
-        <v>14.77270705492471</v>
+        <v>17.49452804717174</v>
       </c>
       <c r="I23">
-        <v>21.64621188568252</v>
+        <v>26.08914435578737</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.193066771614475</v>
+        <v>10.44453884048837</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.15228398512917</v>
+        <v>17.80954739484406</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.63261178101859</v>
+        <v>21.06567540917471</v>
       </c>
       <c r="C24">
-        <v>19.93661689459939</v>
+        <v>11.11884907717264</v>
       </c>
       <c r="D24">
-        <v>8.821261260380826</v>
+        <v>6.405017229150866</v>
       </c>
       <c r="E24">
-        <v>5.680008402057031</v>
+        <v>9.84739546991521</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>52.47752771715182</v>
+        <v>44.92424777938648</v>
       </c>
       <c r="H24">
-        <v>14.05299085932371</v>
+        <v>17.45323786865509</v>
       </c>
       <c r="I24">
-        <v>20.6893696171384</v>
+        <v>26.06889002517939</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.672870088326459</v>
+        <v>10.37837117456365</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.66151423976756</v>
+        <v>17.92595879326278</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.55997788601011</v>
+        <v>20.06030425080431</v>
       </c>
       <c r="C25">
-        <v>17.99802915240802</v>
+        <v>10.14485763294566</v>
       </c>
       <c r="D25">
-        <v>7.921079728541282</v>
+        <v>6.171934107803475</v>
       </c>
       <c r="E25">
-        <v>5.741645721641398</v>
+        <v>9.88616159039433</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>47.92640354140376</v>
+        <v>44.01427772156998</v>
       </c>
       <c r="H25">
-        <v>13.31854868219336</v>
+        <v>17.42560241615288</v>
       </c>
       <c r="I25">
-        <v>19.74803772731187</v>
+        <v>26.07441085495081</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.107819116190567</v>
+        <v>10.31456481404629</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.21041486321435</v>
+        <v>18.05864812069107</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_111/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_111/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.30175218868783</v>
+        <v>25.12099469840986</v>
       </c>
       <c r="C2">
-        <v>9.359008950556611</v>
+        <v>16.46480299073388</v>
       </c>
       <c r="D2">
-        <v>6.000743325601204</v>
+        <v>7.209955653040123</v>
       </c>
       <c r="E2">
-        <v>9.917797993583333</v>
+        <v>5.794234006041492</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>43.38720887879066</v>
+        <v>44.54686079775465</v>
       </c>
       <c r="H2">
-        <v>17.4197638208352</v>
+        <v>12.81217741797105</v>
       </c>
       <c r="I2">
-        <v>26.10181466441462</v>
+        <v>19.12751403586637</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.2742648893817</v>
+        <v>7.689491073104337</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.16255530900539</v>
+        <v>11.61781939977507</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.77987472425733</v>
+        <v>23.3539911698196</v>
       </c>
       <c r="C3">
-        <v>8.783565395150836</v>
+        <v>15.35697362474753</v>
       </c>
       <c r="D3">
-        <v>5.885786259652837</v>
+        <v>6.696411795944261</v>
       </c>
       <c r="E3">
-        <v>9.94117660039621</v>
+        <v>5.834103570660509</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>42.99118484504491</v>
+        <v>42.24347613010748</v>
       </c>
       <c r="H3">
-        <v>17.42482376637523</v>
+        <v>12.48994171632951</v>
       </c>
       <c r="I3">
-        <v>26.13481833111841</v>
+        <v>18.74960637428025</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.25119504932647</v>
+        <v>7.405550516192521</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.23688922098551</v>
+        <v>11.89750155568328</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.45693006997931</v>
+        <v>22.2116468541022</v>
       </c>
       <c r="C4">
-        <v>8.409137042208412</v>
+        <v>14.64209066043432</v>
       </c>
       <c r="D4">
-        <v>5.816000549909685</v>
+        <v>6.365060866294442</v>
       </c>
       <c r="E4">
-        <v>9.956490195497613</v>
+        <v>5.860593885627305</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>42.76296120058336</v>
+        <v>40.82573532043656</v>
       </c>
       <c r="H4">
-        <v>17.43236153732904</v>
+        <v>12.30227846559323</v>
       </c>
       <c r="I4">
-        <v>26.16215218737007</v>
+        <v>18.53767917924158</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.23914361927508</v>
+        <v>7.231442603225948</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.28447527119237</v>
+        <v>12.07144950240526</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.32491096349692</v>
+        <v>21.73155223220033</v>
       </c>
       <c r="C5">
-        <v>8.251260753187422</v>
+        <v>14.3419547997809</v>
       </c>
       <c r="D5">
-        <v>5.787805275672643</v>
+        <v>6.226844982988385</v>
       </c>
       <c r="E5">
-        <v>9.962972182862686</v>
+        <v>5.871884047889487</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>42.67380653654261</v>
+        <v>40.24772461740845</v>
       </c>
       <c r="H5">
-        <v>17.4365446151194</v>
+        <v>12.22834734463603</v>
       </c>
       <c r="I5">
-        <v>26.17506086717872</v>
+        <v>18.45623023515603</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.23476699346311</v>
+        <v>7.160629988917688</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.30435784021617</v>
+        <v>12.14295524345144</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.30297060188164</v>
+        <v>21.65094830584961</v>
       </c>
       <c r="C6">
-        <v>8.224726298765942</v>
+        <v>14.29158248176903</v>
       </c>
       <c r="D6">
-        <v>5.783139380338438</v>
+        <v>6.207061446932949</v>
       </c>
       <c r="E6">
-        <v>9.964063114635879</v>
+        <v>5.873788390871957</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>42.6592374158035</v>
+        <v>40.15175005406866</v>
       </c>
       <c r="H6">
-        <v>17.43730624172073</v>
+        <v>12.21622409812791</v>
       </c>
       <c r="I6">
-        <v>26.17731099999035</v>
+        <v>18.44299801219387</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.23407261356105</v>
+        <v>7.148882420145111</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.30768902706838</v>
+        <v>12.15486792043436</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.45515100975506</v>
+        <v>22.20523134709378</v>
       </c>
       <c r="C7">
-        <v>8.407029279409469</v>
+        <v>14.63807873425672</v>
       </c>
       <c r="D7">
-        <v>5.815619258992571</v>
+        <v>6.363201282315893</v>
       </c>
       <c r="E7">
-        <v>9.956576635163374</v>
+        <v>5.860744156885104</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>42.76174313302536</v>
+        <v>40.81794027356892</v>
       </c>
       <c r="H7">
-        <v>17.4324134561506</v>
+        <v>12.30127113564776</v>
       </c>
       <c r="I7">
-        <v>26.16231912299762</v>
+        <v>18.53656103551294</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.23908242712794</v>
+        <v>7.230486930313661</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.28474142457159</v>
+        <v>12.07241126274532</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.12245521472685</v>
+        <v>24.5235508471834</v>
       </c>
       <c r="C8">
-        <v>9.164981928519584</v>
+        <v>16.08995680091819</v>
       </c>
       <c r="D8">
-        <v>5.960965703723132</v>
+        <v>7.036175488087249</v>
       </c>
       <c r="E8">
-        <v>9.925660138972253</v>
+        <v>5.807557290169663</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>43.2476179279168</v>
+        <v>43.75368861144914</v>
       </c>
       <c r="H8">
-        <v>17.42058733001563</v>
+        <v>12.69894450945969</v>
       </c>
       <c r="I8">
-        <v>26.11172261451397</v>
+        <v>18.99295456629886</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.265873657791</v>
+        <v>7.591584608538225</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.18778313370869</v>
+        <v>11.71383129762153</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.40225678621007</v>
+        <v>28.62187183738547</v>
       </c>
       <c r="C9">
-        <v>10.48361110621365</v>
+        <v>18.66709174760287</v>
       </c>
       <c r="D9">
-        <v>6.250484688405425</v>
+        <v>8.231607112016844</v>
       </c>
       <c r="E9">
-        <v>9.872623844106432</v>
+        <v>5.719725381601734</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>44.31443396404969</v>
+        <v>49.4641971522277</v>
       </c>
       <c r="H9">
-        <v>17.43265455583065</v>
+        <v>13.56051924610371</v>
       </c>
       <c r="I9">
-        <v>26.06891077066033</v>
+        <v>20.05350167016065</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.33503125275632</v>
+        <v>8.298613653665376</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.01299265805966</v>
+        <v>11.02523439695655</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.31398396833786</v>
+        <v>31.37162244266381</v>
       </c>
       <c r="C10">
-        <v>11.35015019409668</v>
+        <v>20.40410153971857</v>
       </c>
       <c r="D10">
-        <v>6.463522719436524</v>
+        <v>9.038551857760512</v>
       </c>
       <c r="E10">
-        <v>9.838259996086096</v>
+        <v>5.666040454062277</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>45.16115397479683</v>
+        <v>53.61668677903313</v>
       </c>
       <c r="H10">
-        <v>17.46311476956634</v>
+        <v>14.24494107744749</v>
       </c>
       <c r="I10">
-        <v>26.07222607222093</v>
+        <v>20.94165898131503</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.39574410846939</v>
+        <v>8.814399212147761</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.89380549987717</v>
+        <v>10.52351218182416</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.72049507559245</v>
+        <v>32.56879069243803</v>
       </c>
       <c r="C11">
-        <v>11.72222360037</v>
+        <v>21.16246930121268</v>
       </c>
       <c r="D11">
-        <v>6.56002358019707</v>
+        <v>9.391241301453533</v>
       </c>
       <c r="E11">
-        <v>9.823620891542054</v>
+        <v>5.644180675767759</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>45.55848204871284</v>
+        <v>55.49645167641318</v>
       </c>
       <c r="H11">
-        <v>17.48166850972155</v>
+        <v>14.56800651672657</v>
       </c>
       <c r="I11">
-        <v>26.08134777770834</v>
+        <v>21.37116809976172</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.42545594917729</v>
+        <v>9.047892477171491</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.84156224214298</v>
+        <v>10.29499571964932</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.87309270712595</v>
+        <v>33.01468080197329</v>
       </c>
       <c r="C12">
-        <v>11.85994500524912</v>
+        <v>21.445270690699</v>
       </c>
       <c r="D12">
-        <v>6.596468442068196</v>
+        <v>9.522825102409939</v>
       </c>
       <c r="E12">
-        <v>9.818219864357502</v>
+        <v>5.636291444034105</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>45.71055211143803</v>
+        <v>56.20714928782655</v>
       </c>
       <c r="H12">
-        <v>17.48936915793805</v>
+        <v>14.69209216336859</v>
       </c>
       <c r="I12">
-        <v>26.08590037100979</v>
+        <v>21.53764037466153</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.43700239769796</v>
+        <v>9.136136443348615</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.82206118231936</v>
+        <v>10.20831158657309</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.84028995942536</v>
+        <v>32.91897714797537</v>
       </c>
       <c r="C13">
-        <v>11.83042531730981</v>
+        <v>21.38455556427458</v>
       </c>
       <c r="D13">
-        <v>6.588624340888733</v>
+        <v>9.494572217774877</v>
       </c>
       <c r="E13">
-        <v>9.819376740445037</v>
+        <v>5.637972899109427</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45.67773168131406</v>
+        <v>56.05413314730928</v>
       </c>
       <c r="H13">
-        <v>17.48768069472813</v>
+        <v>14.66528913718265</v>
       </c>
       <c r="I13">
-        <v>26.08487099016437</v>
+        <v>21.5016145799065</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.43450263008067</v>
+        <v>9.117139304637984</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.82624855576657</v>
+        <v>10.22698911179759</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.73307705328237</v>
+        <v>32.60562201651883</v>
       </c>
       <c r="C14">
-        <v>11.73361760815911</v>
+        <v>21.18582202383033</v>
       </c>
       <c r="D14">
-        <v>6.563024098641863</v>
+        <v>9.402105706471934</v>
       </c>
       <c r="E14">
-        <v>9.823173692086055</v>
+        <v>5.643523711050181</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>45.5709614603149</v>
+        <v>55.55494210282986</v>
       </c>
       <c r="H14">
-        <v>17.48228853029382</v>
+        <v>14.57817965409973</v>
       </c>
       <c r="I14">
-        <v>26.08170029164276</v>
+        <v>21.38478617590468</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.42640000045778</v>
+        <v>9.055155870955179</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.83995222999031</v>
+        <v>10.28786784035239</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.66722728021995</v>
+        <v>32.41272111506587</v>
       </c>
       <c r="C15">
-        <v>11.67390686003362</v>
+        <v>21.06352838924689</v>
       </c>
       <c r="D15">
-        <v>6.54732934089342</v>
+        <v>9.345213554108609</v>
       </c>
       <c r="E15">
-        <v>9.825517980407307</v>
+        <v>5.646974993191099</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>45.50576724790772</v>
+        <v>55.24903484472036</v>
       </c>
       <c r="H15">
-        <v>17.47907351299626</v>
+        <v>14.5250524154719</v>
       </c>
       <c r="I15">
-        <v>26.0799012812494</v>
+        <v>21.31372892071952</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.42147517315258</v>
+        <v>9.017166406706551</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.84838284151089</v>
+        <v>10.32513483299218</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.28723820286</v>
+        <v>31.29232649134926</v>
       </c>
       <c r="C16">
-        <v>11.32538969324265</v>
+        <v>20.35391675019465</v>
       </c>
       <c r="D16">
-        <v>6.457204527263194</v>
+        <v>9.015221267771693</v>
       </c>
       <c r="E16">
-        <v>9.839236652633538</v>
+        <v>5.667522262281168</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>45.13542054131735</v>
+        <v>53.49366734706368</v>
       </c>
       <c r="H16">
-        <v>17.46199671523549</v>
+        <v>14.22406868572497</v>
       </c>
       <c r="I16">
-        <v>26.07178347975282</v>
+        <v>20.9141156999526</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.39384400633955</v>
+        <v>8.79911563792929</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.8972593229267</v>
+        <v>10.53843153610218</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.05190279545765</v>
+        <v>30.59142897375646</v>
       </c>
       <c r="C17">
-        <v>11.10592403334839</v>
+        <v>19.91057980609387</v>
       </c>
       <c r="D17">
-        <v>6.401782354320451</v>
+        <v>8.809161623001797</v>
       </c>
       <c r="E17">
-        <v>9.847906751558035</v>
+        <v>5.680797083100182</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>44.91124072836731</v>
+        <v>52.41453375084719</v>
       </c>
       <c r="H17">
-        <v>17.45272345086997</v>
+        <v>14.04246457253925</v>
       </c>
       <c r="I17">
-        <v>26.06875634028938</v>
+        <v>20.6756015448868</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.37742533060575</v>
+        <v>8.665043742131585</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.92774820152562</v>
+        <v>10.66913612480159</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.91577704323521</v>
+        <v>30.1832181681457</v>
       </c>
       <c r="C18">
-        <v>10.9776106929566</v>
+        <v>19.65257713346233</v>
       </c>
       <c r="D18">
-        <v>6.369868486670106</v>
+        <v>8.689280359215331</v>
       </c>
       <c r="E18">
-        <v>9.852987065780773</v>
+        <v>5.68867218427833</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>44.78345055662752</v>
+        <v>51.79295474814193</v>
       </c>
       <c r="H18">
-        <v>17.44783192834069</v>
+        <v>13.93910884863293</v>
       </c>
       <c r="I18">
-        <v>26.06773168067534</v>
+        <v>20.54080229728103</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.36817914397952</v>
+        <v>8.58782149811899</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.94547065363662</v>
+        <v>10.74429478656911</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.86956039945792</v>
+        <v>30.04412590054996</v>
       </c>
       <c r="C19">
-        <v>10.93380817703729</v>
+        <v>19.56469976868291</v>
       </c>
       <c r="D19">
-        <v>6.359057943651409</v>
+        <v>8.648454013718858</v>
       </c>
       <c r="E19">
-        <v>9.854723242339498</v>
+        <v>5.691379164192887</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>44.74038499228048</v>
+        <v>51.58234253859988</v>
       </c>
       <c r="H19">
-        <v>17.44625170331159</v>
+        <v>13.90430140704976</v>
       </c>
       <c r="I19">
-        <v>26.06750767807802</v>
+        <v>20.4955670829695</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.36508261734647</v>
+        <v>8.561657479000049</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.95150318024247</v>
+        <v>10.76974206966148</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.07703520227395</v>
+        <v>30.66656388425756</v>
       </c>
       <c r="C20">
-        <v>11.12950201995512</v>
+        <v>19.95808363605522</v>
       </c>
       <c r="D20">
-        <v>6.407686203853086</v>
+        <v>8.831237226666961</v>
       </c>
       <c r="E20">
-        <v>9.84697413000308</v>
+        <v>5.67935900146271</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>44.93498679230201</v>
+        <v>52.52950054566841</v>
       </c>
       <c r="H20">
-        <v>17.4536648412877</v>
+        <v>14.0616825971154</v>
       </c>
       <c r="I20">
-        <v>26.06900440369143</v>
+        <v>20.70074354964258</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.37915273698385</v>
+        <v>8.679327194038862</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.9244833651737</v>
+        <v>10.6552251361982</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.76460559549047</v>
+        <v>32.69786193213874</v>
       </c>
       <c r="C21">
-        <v>11.76213848263619</v>
+        <v>21.24431194838823</v>
       </c>
       <c r="D21">
-        <v>6.570546467357097</v>
+        <v>9.429318053350764</v>
       </c>
       <c r="E21">
-        <v>9.822054571009277</v>
+        <v>5.641882582931049</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>45.60227985703537</v>
+        <v>55.70159485831828</v>
       </c>
       <c r="H21">
-        <v>17.4838540363589</v>
+        <v>14.60371778064304</v>
       </c>
       <c r="I21">
-        <v>26.08260176862296</v>
+        <v>21.41899625541664</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.42877197523207</v>
+        <v>9.07336666051491</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.83591948036228</v>
+        <v>10.26999128581355</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.2061039904867</v>
+        <v>33.9821480891469</v>
       </c>
       <c r="C22">
-        <v>12.15710231834522</v>
+        <v>22.05953973226987</v>
       </c>
       <c r="D22">
-        <v>6.676397723567479</v>
+        <v>9.808756876588255</v>
       </c>
       <c r="E22">
-        <v>9.806598553731597</v>
+        <v>5.619665884713534</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>46.04771667493495</v>
+        <v>57.76837281956722</v>
       </c>
       <c r="H22">
-        <v>17.5075165451304</v>
+        <v>14.96820197976161</v>
       </c>
       <c r="I22">
-        <v>26.09789172955278</v>
+        <v>21.91081290675891</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.4629188036492</v>
+        <v>9.329881612614601</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.7796826744127</v>
+        <v>10.01728473842684</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.97123553009389</v>
+        <v>33.30056310110331</v>
       </c>
       <c r="C23">
-        <v>11.94799304119555</v>
+        <v>21.62668923266694</v>
       </c>
       <c r="D23">
-        <v>6.619968963214347</v>
+        <v>9.607255116544774</v>
       </c>
       <c r="E23">
-        <v>9.814771852328841</v>
+        <v>5.631307706426353</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.80917155876029</v>
+        <v>56.66576932064875</v>
       </c>
       <c r="H23">
-        <v>17.49452804717174</v>
+        <v>14.77270705492474</v>
       </c>
       <c r="I23">
-        <v>26.08914435578737</v>
+        <v>21.64621188568257</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.44453884048837</v>
+        <v>9.193066771614451</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.80954739484406</v>
+        <v>10.15228398512927</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.06567540917471</v>
+        <v>30.63261178101864</v>
       </c>
       <c r="C24">
-        <v>11.11884907717264</v>
+        <v>19.93661689459925</v>
       </c>
       <c r="D24">
-        <v>6.405017229150866</v>
+        <v>8.821261260380723</v>
       </c>
       <c r="E24">
-        <v>9.84739546991521</v>
+        <v>5.680008402056852</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>44.92424777938648</v>
+        <v>52.47752771715183</v>
       </c>
       <c r="H24">
-        <v>17.45323786865509</v>
+        <v>14.05299085932372</v>
       </c>
       <c r="I24">
-        <v>26.06889002517939</v>
+        <v>20.68936961713837</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.37837117456365</v>
+        <v>8.672870088326436</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.92595879326278</v>
+        <v>10.66151423976753</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.06030425080431</v>
+        <v>27.5599778860101</v>
       </c>
       <c r="C25">
-        <v>10.14485763294566</v>
+        <v>17.9980291524081</v>
       </c>
       <c r="D25">
-        <v>6.171934107803475</v>
+        <v>7.921079728541347</v>
       </c>
       <c r="E25">
-        <v>9.88616159039433</v>
+        <v>5.741645721641341</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>44.01427772156998</v>
+        <v>47.92640354140376</v>
       </c>
       <c r="H25">
-        <v>17.42560241615288</v>
+        <v>13.3185486821933</v>
       </c>
       <c r="I25">
-        <v>26.07441085495081</v>
+        <v>19.74803772731186</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.31456481404629</v>
+        <v>8.107819116190514</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.05864812069107</v>
+        <v>11.21041486321432</v>
       </c>
       <c r="O25">
         <v>0</v>
